--- a/Change Sets/Employee Returns/employee_returns_20180814.xlsx
+++ b/Change Sets/Employee Returns/employee_returns_20180814.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Employee Returns Change Set</t>
   </si>
@@ -39,7 +39,49 @@
     <t>Flow</t>
   </si>
   <si>
-    <t>IMS Landing Page</t>
+    <t>IMS Detail Item Lookup</t>
+  </si>
+  <si>
+    <t>IMS Transaction Detail Locator by Barcode</t>
+  </si>
+  <si>
+    <t>IMS Transaction Detail Returner</t>
+  </si>
+  <si>
+    <t>IMS Transaction Landing Page</t>
+  </si>
+  <si>
+    <t>List View</t>
+  </si>
+  <si>
+    <t>All Active SIS Employees</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Item Issue</t>
+  </si>
+  <si>
+    <t>Lightning App</t>
+  </si>
+  <si>
+    <t>Utilities Lightning App</t>
+  </si>
+  <si>
+    <t>Search Layout</t>
+  </si>
+  <si>
+    <t>Contact / List View</t>
+  </si>
+  <si>
+    <t>Custom Field</t>
+  </si>
+  <si>
+    <t>Total Lines</t>
   </si>
 </sst>
 </file>
@@ -378,16 +420,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -426,7 +468,84 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A4:B7">
+    <sortCondition ref="A4:A7"/>
+    <sortCondition ref="B4:B7"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Change Sets/Employee Returns/employee_returns_20180814.xlsx
+++ b/Change Sets/Employee Returns/employee_returns_20180814.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="360" yWindow="150" windowWidth="21075" windowHeight="7500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Salesforce" sheetId="1" r:id="rId1"/>
+    <sheet name="Jitterbit Operations" sheetId="2" r:id="rId2"/>
+    <sheet name="Into Inventory" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
   <si>
     <t>Employee Returns Change Set</t>
   </si>
@@ -82,13 +82,142 @@
   </si>
   <si>
     <t>Total Lines</t>
+  </si>
+  <si>
+    <t>Profiles</t>
+  </si>
+  <si>
+    <t>System Administrator</t>
+  </si>
+  <si>
+    <t>Page Layout</t>
+  </si>
+  <si>
+    <t>Employee Orders</t>
+  </si>
+  <si>
+    <t>IMS Orders</t>
+  </si>
+  <si>
+    <t>Vendor Orders</t>
+  </si>
+  <si>
+    <t>Transaction By Contact</t>
+  </si>
+  <si>
+    <t>Order Check</t>
+  </si>
+  <si>
+    <t>Order Origin</t>
+  </si>
+  <si>
+    <t>Workflow Rule</t>
+  </si>
+  <si>
+    <t>Workflow Field Update</t>
+  </si>
+  <si>
+    <t>Order Check to True</t>
+  </si>
+  <si>
+    <t>Order Check Set True</t>
+  </si>
+  <si>
+    <t>Order Check to False</t>
+  </si>
+  <si>
+    <t>Order Check Set False</t>
+  </si>
+  <si>
+    <t>Advanced Online Create Order Headers</t>
+  </si>
+  <si>
+    <t>Upsert Advanced Online Order Headers</t>
+  </si>
+  <si>
+    <t>Upsert Advanced Online Transaction Details</t>
+  </si>
+  <si>
+    <t>failure email alert</t>
+  </si>
+  <si>
+    <t>IMS Transaction Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMS Transaction Detail </t>
+  </si>
+  <si>
+    <t>Qty Received Entry</t>
+  </si>
+  <si>
+    <t>IMS Transaction Detail</t>
+  </si>
+  <si>
+    <t>Flow Definition</t>
+  </si>
+  <si>
+    <t>IMS Detail Item Table Creator</t>
+  </si>
+  <si>
+    <t>SIS Employee</t>
+  </si>
+  <si>
+    <t>Qty Returned</t>
+  </si>
+  <si>
+    <t>Qty Balance</t>
+  </si>
+  <si>
+    <t>IMS Inventory Transaction Updater</t>
+  </si>
+  <si>
+    <t>Qty Issue</t>
+  </si>
+  <si>
+    <t>Qty Ordered</t>
+  </si>
+  <si>
+    <t>Qty Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page Layout </t>
+  </si>
+  <si>
+    <t>Clothing_Item</t>
+  </si>
+  <si>
+    <t>IMS Detail (Compact Layout)</t>
+  </si>
+  <si>
+    <t>Returned Date Set to Today</t>
+  </si>
+  <si>
+    <t>Return Date Set to Today</t>
+  </si>
+  <si>
+    <t>Returned Date Set to Null</t>
+  </si>
+  <si>
+    <t>Return Date Set to Null</t>
+  </si>
+  <si>
+    <t>Returned By User</t>
+  </si>
+  <si>
+    <t>Inventory Status Set to Placed In Stock</t>
+  </si>
+  <si>
+    <t>Inventory Status Set to Issued</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,13 +225,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,13 +255,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,25 +564,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -448,8 +596,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -460,7 +611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -468,7 +619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -476,7 +627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -484,7 +635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -492,7 +643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -503,7 +654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -514,7 +665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -522,7 +673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -533,12 +684,344 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -552,12 +1035,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Change Sets/Employee Returns/employee_returns_20180814.xlsx
+++ b/Change Sets/Employee Returns/employee_returns_20180814.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="21075" windowHeight="7500"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="21075" windowHeight="7500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Salesforce" sheetId="1" r:id="rId1"/>
     <sheet name="Jitterbit Operations" sheetId="2" r:id="rId2"/>
     <sheet name="Into Inventory" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="105">
   <si>
     <t>Employee Returns Change Set</t>
   </si>
@@ -36,9 +37,6 @@
     <t>IMS Transaction</t>
   </si>
   <si>
-    <t>Flow</t>
-  </si>
-  <si>
     <t>IMS Detail Item Lookup</t>
   </si>
   <si>
@@ -141,9 +139,6 @@
     <t>failure email alert</t>
   </si>
   <si>
-    <t>IMS Transaction Details</t>
-  </si>
-  <si>
     <t xml:space="preserve">Employee Order </t>
   </si>
   <si>
@@ -211,13 +206,139 @@
   </si>
   <si>
     <t>Inventory Status Set to Issued</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Issue Needs to Update Qty Issued</t>
+  </si>
+  <si>
+    <t>Detail Returned needs to update Master</t>
+  </si>
+  <si>
+    <t>IMS Inventory Transaction Detail Updater</t>
+  </si>
+  <si>
+    <t>Detail Received In Full Needs to Update Transaction / Inventory Status</t>
+  </si>
+  <si>
+    <t>Received Date Set to Today</t>
+  </si>
+  <si>
+    <t>Received Date Set to Null</t>
+  </si>
+  <si>
+    <t>Inventory Status Set to Trans Status</t>
+  </si>
+  <si>
+    <t>Received Partial</t>
+  </si>
+  <si>
+    <t>Transaction Status Set to Received Part</t>
+  </si>
+  <si>
+    <t>IMS Transaction Detail Order Lookup by IMST Id</t>
+  </si>
+  <si>
+    <t>Transaction Status Set to Ordered</t>
+  </si>
+  <si>
+    <t>All - Employee Orders Today</t>
+  </si>
+  <si>
+    <t>IMS Transactions</t>
+  </si>
+  <si>
+    <t>IMS Transaction Detail Record Creator</t>
+  </si>
+  <si>
+    <t>IMS Uniform Transaction Creator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workflow Field Update </t>
+  </si>
+  <si>
+    <t>Transaction Status Set to Issued</t>
+  </si>
+  <si>
+    <t>All - Employee Orders - Issue</t>
+  </si>
+  <si>
+    <t>Order Transaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detail Order Transaction </t>
+  </si>
+  <si>
+    <t>Issued Date</t>
+  </si>
+  <si>
+    <t>Vendor Item Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMS Detail </t>
+  </si>
+  <si>
+    <t>Total Qty Sent</t>
+  </si>
+  <si>
+    <t>Parent Object</t>
+  </si>
+  <si>
+    <t>All - Employee Orders</t>
+  </si>
+  <si>
+    <t>All - Employee Orders - Returns</t>
+  </si>
+  <si>
+    <t>All - Employee Returns</t>
+  </si>
+  <si>
+    <t>All - IMS Transactions</t>
+  </si>
+  <si>
+    <t>IMS Detail</t>
+  </si>
+  <si>
+    <t>All - IT Assets</t>
+  </si>
+  <si>
+    <t>IMS</t>
+  </si>
+  <si>
+    <t>All - Items to Process</t>
+  </si>
+  <si>
+    <t>Clothing Item</t>
+  </si>
+  <si>
+    <t>Compact Layout</t>
+  </si>
+  <si>
+    <t>Flow Version</t>
+  </si>
+  <si>
+    <t>Custom Link within salesforce.com</t>
+  </si>
+  <si>
+    <t>Utilities App Home Page</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>Utilities_Lightning_App</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,8 +353,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,6 +371,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -255,16 +388,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -564,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,9 +718,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -596,438 +729,657 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B33" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" t="s">
-        <v>45</v>
+      <c r="A37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" t="s">
-        <v>45</v>
+      <c r="A38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" t="s">
-        <v>45</v>
+      <c r="A39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" t="s">
-        <v>45</v>
+      <c r="A40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" t="s">
-        <v>45</v>
+      <c r="A42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="C48" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:B7">
-    <sortCondition ref="A4:A7"/>
-    <sortCondition ref="B4:B7"/>
+  <sortState ref="A5:C22">
+    <sortCondition ref="A5:A22"/>
+    <sortCondition ref="C5:C22"/>
+    <sortCondition ref="B5:B22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1048,22 +1400,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1081,4 +1433,288 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>